--- a/201908遊撃前アイナ.xlsx
+++ b/201908遊撃前アイナ.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7375E2A-5527-42B3-84FF-3E5ED4442D10}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C0E43E-EA9B-46DA-9845-7EA35BFC371B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="11720" windowHeight="2670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="11720" windowHeight="2670" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="後衛スキル管理" sheetId="1" r:id="rId1"/>
     <sheet name="デッキ" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId3"/>
-    <sheet name="小隊長計算" sheetId="9" r:id="rId4"/>
-    <sheet name="補助計算" sheetId="5" r:id="rId5"/>
-    <sheet name="忘却前" sheetId="8" r:id="rId6"/>
-    <sheet name="レビュー前" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId4"/>
+    <sheet name="小隊長計算" sheetId="9" r:id="rId5"/>
+    <sheet name="補助計算" sheetId="5" r:id="rId6"/>
+    <sheet name="忘却前" sheetId="8" r:id="rId7"/>
+    <sheet name="レビュー前" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">デッキ!$B$4:$X$73</definedName>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="361">
   <si>
     <t>AP</t>
     <phoneticPr fontId="1"/>
@@ -2901,6 +2902,15 @@
       <t>ノウチュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2x - y + 3z = 20</t>
+  </si>
+  <si>
+    <t>4x + 6y + z = 42</t>
+  </si>
+  <si>
+    <t>9x + 5y - 8z = -1</t>
   </si>
 </sst>
 </file>
@@ -3451,7 +3461,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3830,31 +3840,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="116">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="115">
     <dxf>
       <fill>
         <patternFill>
@@ -5346,10 +5352,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E5" s="128" t="s">
+      <c r="E5" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="128"/>
+      <c r="F5" s="126"/>
       <c r="G5" s="77"/>
       <c r="H5" s="74"/>
       <c r="I5" s="74"/>
@@ -5361,10 +5367,10 @@
         <f>SUM(K2:K4)</f>
         <v>80</v>
       </c>
-      <c r="L5" s="128" t="s">
+      <c r="L5" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="128"/>
+      <c r="M5" s="126"/>
       <c r="N5" s="79"/>
       <c r="O5" s="79"/>
       <c r="P5" s="93">
@@ -5648,10 +5654,10 @@
         <f t="shared" ref="K9:K17" si="14">IF(I9&gt;$G9,$G9,I9)</f>
         <v>2</v>
       </c>
-      <c r="L9" s="128" t="s">
+      <c r="L9" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="128"/>
+      <c r="M9" s="126"/>
       <c r="N9" s="79"/>
       <c r="O9" s="79"/>
       <c r="P9" s="93">
@@ -5825,10 +5831,10 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="128" t="s">
+      <c r="A12" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="128"/>
+      <c r="B12" s="126"/>
       <c r="C12" s="78">
         <f>SUM(C2:C9)</f>
         <v>79</v>
@@ -6275,10 +6281,10 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="128" t="s">
+      <c r="A18" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="128"/>
+      <c r="B18" s="126"/>
       <c r="C18" s="78">
         <f>SUM(C12:C17)+J5</f>
         <v>237</v>
@@ -6287,10 +6293,10 @@
         <f>SUM(D12:D17)+K5</f>
         <v>131</v>
       </c>
-      <c r="E18" s="128" t="s">
+      <c r="E18" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="128"/>
+      <c r="F18" s="126"/>
       <c r="G18" s="77"/>
       <c r="H18" s="74"/>
       <c r="I18" s="74"/>
@@ -6950,10 +6956,10 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E28" s="128" t="s">
+      <c r="E28" s="126" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="128"/>
+      <c r="F28" s="126"/>
       <c r="G28" s="77"/>
       <c r="H28" s="74"/>
       <c r="I28" s="74"/>
@@ -7731,11 +7737,11 @@
       <c r="U42" s="107" t="s">
         <v>155</v>
       </c>
-      <c r="V42" s="126">
+      <c r="V42" s="127">
         <f>SUM(SUMPRODUCT(B2:B57,C2:C57),SUMPRODUCT(F2:F48,J2:J48),SUMPRODUCT(M2:M25,P2:P25))</f>
         <v>12475</v>
       </c>
-      <c r="W42" s="126"/>
+      <c r="W42" s="127"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="49" t="s">
@@ -7778,11 +7784,11 @@
       <c r="U43" s="108" t="s">
         <v>158</v>
       </c>
-      <c r="V43" s="127">
+      <c r="V43" s="128">
         <f>SUM(SUM(C2:C57),SUM(J2:J48),SUM(P2:P25))-C12-C18-J5-J18-J28-P5-P9</f>
         <v>500</v>
       </c>
-      <c r="W43" s="127"/>
+      <c r="W43" s="128"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="49" t="s">
@@ -7831,11 +7837,11 @@
       <c r="U44" s="108" t="s">
         <v>161</v>
       </c>
-      <c r="V44" s="127">
+      <c r="V44" s="128">
         <f>SUM(SUM(D2:D57),SUM(K2:K48))-D12-D18-K5-K18-K28</f>
         <v>203</v>
       </c>
-      <c r="W44" s="127"/>
+      <c r="W44" s="128"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="49"/>
@@ -8167,40 +8173,40 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L9:M9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L9:M9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J14:J15 J19 J21:J27">
-    <cfRule type="expression" dxfId="115" priority="6">
+    <cfRule type="expression" dxfId="114" priority="6">
       <formula>$H14&gt;$G14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8">
-    <cfRule type="expression" dxfId="114" priority="13">
+    <cfRule type="expression" dxfId="113" priority="13">
       <formula>$H32&gt;$G32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7">
-    <cfRule type="expression" dxfId="113" priority="16">
+    <cfRule type="expression" dxfId="112" priority="16">
       <formula>$H30&gt;$G30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="112" priority="2">
+    <cfRule type="expression" dxfId="111" priority="2">
       <formula>$H16&gt;$G16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="expression" dxfId="111" priority="1">
+    <cfRule type="expression" dxfId="110" priority="1">
       <formula>$H17&gt;$G17</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8217,7 +8223,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -12754,7 +12760,7 @@
         <v>5</v>
       </c>
       <c r="L89" s="9" t="str">
-        <f>IF($G89&gt;0,IF(K89="","",K89),"")</f>
+        <f t="shared" ref="L89:L118" si="6">IF($G89&gt;0,IF(K89="","",K89),"")</f>
         <v/>
       </c>
       <c r="M89" s="12" t="s">
@@ -12770,7 +12776,7 @@
       <c r="P89" s="12"/>
       <c r="Q89" s="13"/>
       <c r="R89" s="9" t="str">
-        <f>IF($G89&gt;0,IF(Q89="","",Q89),"")</f>
+        <f t="shared" ref="R89:R118" si="7">IF($G89&gt;0,IF(Q89="","",Q89),"")</f>
         <v/>
       </c>
       <c r="S89" s="14" t="s">
@@ -12823,7 +12829,7 @@
         <v>3</v>
       </c>
       <c r="L90" s="9" t="str">
-        <f>IF($G90&gt;0,IF(K90="","",K90),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M90" s="12" t="s">
@@ -12839,7 +12845,7 @@
       <c r="P90" s="12"/>
       <c r="Q90" s="13"/>
       <c r="R90" s="9" t="str">
-        <f>IF($G90&gt;0,IF(Q90="","",Q90),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S90" s="14" t="s">
@@ -12885,7 +12891,7 @@
         <v>5</v>
       </c>
       <c r="L91" s="9" t="str">
-        <f>IF($G91&gt;0,IF(K91="","",K91),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M91" s="44" t="s">
@@ -12901,7 +12907,7 @@
       <c r="P91" s="12"/>
       <c r="Q91" s="13"/>
       <c r="R91" s="9" t="str">
-        <f>IF($G91&gt;0,IF(Q91="","",Q91),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S91" s="14" t="s">
@@ -12947,7 +12953,7 @@
         <v>4</v>
       </c>
       <c r="L92" s="9" t="str">
-        <f>IF($G92&gt;0,IF(K92="","",K92),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M92" s="12" t="s">
@@ -12963,7 +12969,7 @@
       <c r="P92" s="12"/>
       <c r="Q92" s="13"/>
       <c r="R92" s="9" t="str">
-        <f>IF($G92&gt;0,IF(Q92="","",Q92),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S92" s="12" t="s">
@@ -13005,7 +13011,7 @@
         <v>4</v>
       </c>
       <c r="L93" s="9" t="str">
-        <f>IF($G93&gt;0,IF(K93="","",K93),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M93" s="12" t="s">
@@ -13021,7 +13027,7 @@
       <c r="P93" s="12"/>
       <c r="Q93" s="13"/>
       <c r="R93" s="9" t="str">
-        <f>IF($G93&gt;0,IF(Q93="","",Q93),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S93" s="14" t="s">
@@ -13071,7 +13077,7 @@
         <v>4</v>
       </c>
       <c r="L94" s="9">
-        <f>IF($G94&gt;0,IF(K94="","",K94),"")</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="M94" s="70" t="s">
@@ -13091,7 +13097,7 @@
         <v>3</v>
       </c>
       <c r="R94" s="9">
-        <f>IF($G94&gt;0,IF(Q94="","",Q94),"")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="S94" s="20" t="s">
@@ -13131,7 +13137,7 @@
         <v>1</v>
       </c>
       <c r="L95" s="9" t="str">
-        <f>IF($G95&gt;0,IF(K95="","",K95),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M95" s="12" t="s">
@@ -13147,7 +13153,7 @@
       <c r="P95" s="12"/>
       <c r="Q95" s="13"/>
       <c r="R95" s="9" t="str">
-        <f>IF($G95&gt;0,IF(Q95="","",Q95),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S95" s="14" t="s">
@@ -13189,7 +13195,7 @@
         <v>5</v>
       </c>
       <c r="L96" s="9" t="str">
-        <f>IF($G96&gt;0,IF(K96="","",K96),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M96" s="12" t="s">
@@ -13209,7 +13215,7 @@
         <v>3</v>
       </c>
       <c r="R96" s="9" t="str">
-        <f>IF($G96&gt;0,IF(Q96="","",Q96),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S96" s="14"/>
@@ -13249,7 +13255,7 @@
         <v>5</v>
       </c>
       <c r="L97" s="9" t="str">
-        <f>IF($G97&gt;0,IF(K97="","",K97),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M97" s="44" t="s">
@@ -13265,7 +13271,7 @@
       <c r="P97" s="12"/>
       <c r="Q97" s="13"/>
       <c r="R97" s="9" t="str">
-        <f>IF($G97&gt;0,IF(Q97="","",Q97),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S97" s="14" t="s">
@@ -13311,7 +13317,7 @@
         <v>4</v>
       </c>
       <c r="L98" s="9" t="str">
-        <f>IF($G98&gt;0,IF(K98="","",K98),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M98" s="12"/>
@@ -13323,7 +13329,7 @@
       <c r="P98" s="17"/>
       <c r="Q98" s="18"/>
       <c r="R98" s="9" t="str">
-        <f>IF($G98&gt;0,IF(Q98="","",Q98),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S98" s="20" t="s">
@@ -13369,7 +13375,7 @@
         <v>1</v>
       </c>
       <c r="L99" s="9" t="str">
-        <f>IF($G99&gt;0,IF(K99="","",K99),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M99" s="44" t="s">
@@ -13385,7 +13391,7 @@
       <c r="P99" s="12"/>
       <c r="Q99" s="13"/>
       <c r="R99" s="9" t="str">
-        <f>IF($G99&gt;0,IF(Q99="","",Q99),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S99" s="12" t="s">
@@ -13431,7 +13437,7 @@
         <v>2</v>
       </c>
       <c r="L100" s="9" t="str">
-        <f>IF($G100&gt;0,IF(K100="","",K100),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M100" s="12"/>
@@ -13443,7 +13449,7 @@
       <c r="P100" s="12"/>
       <c r="Q100" s="13"/>
       <c r="R100" s="9" t="str">
-        <f>IF($G100&gt;0,IF(Q100="","",Q100),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S100" s="14" t="s">
@@ -13489,7 +13495,7 @@
         <v>4</v>
       </c>
       <c r="L101" s="9" t="str">
-        <f>IF($G101&gt;0,IF(K101="","",K101),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M101" s="44" t="s">
@@ -13505,7 +13511,7 @@
       <c r="P101" s="12"/>
       <c r="Q101" s="13"/>
       <c r="R101" s="9" t="str">
-        <f>IF($G101&gt;0,IF(Q101="","",Q101),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S101" s="12" t="s">
@@ -13545,7 +13551,7 @@
         <v>5</v>
       </c>
       <c r="L102" s="9" t="str">
-        <f>IF($G102&gt;0,IF(K102="","",K102),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M102" s="12" t="s">
@@ -13565,7 +13571,7 @@
         <v>3</v>
       </c>
       <c r="R102" s="9" t="str">
-        <f>IF($G102&gt;0,IF(Q102="","",Q102),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S102" s="14" t="s">
@@ -13615,7 +13621,7 @@
         <v>5</v>
       </c>
       <c r="L103" s="9">
-        <f>IF($G103&gt;0,IF(K103="","",K103),"")</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="M103" s="71" t="s">
@@ -13625,13 +13631,13 @@
         <v>5</v>
       </c>
       <c r="O103" s="9">
-        <f>IF($G103&gt;0,N103,"")</f>
+        <f t="shared" ref="O103:O113" si="8">IF($G103&gt;0,N103,"")</f>
         <v>5</v>
       </c>
       <c r="P103" s="12"/>
       <c r="Q103" s="13"/>
       <c r="R103" s="9" t="str">
-        <f>IF($G103&gt;0,IF(Q103="","",Q103),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S103" s="14" t="s">
@@ -13673,7 +13679,7 @@
         <v>4</v>
       </c>
       <c r="L104" s="9" t="str">
-        <f>IF($G104&gt;0,IF(K104="","",K104),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M104" s="12" t="s">
@@ -13683,7 +13689,7 @@
         <v>4</v>
       </c>
       <c r="O104" s="19" t="str">
-        <f>IF($G104&gt;0,N104,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P104" s="12" t="s">
@@ -13693,7 +13699,7 @@
         <v>3</v>
       </c>
       <c r="R104" s="9" t="str">
-        <f>IF($G104&gt;0,IF(Q104="","",Q104),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S104" s="14" t="s">
@@ -13739,7 +13745,7 @@
         <v>5</v>
       </c>
       <c r="L105" s="9" t="str">
-        <f>IF($G105&gt;0,IF(K105="","",K105),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M105" s="44" t="s">
@@ -13749,13 +13755,13 @@
         <v>1</v>
       </c>
       <c r="O105" s="19" t="str">
-        <f>IF($G105&gt;0,N105,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P105" s="12"/>
       <c r="Q105" s="13"/>
       <c r="R105" s="9" t="str">
-        <f>IF($G105&gt;0,IF(Q105="","",Q105),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S105" s="14" t="s">
@@ -13801,7 +13807,7 @@
         <v>5</v>
       </c>
       <c r="L106" s="9" t="str">
-        <f>IF($G106&gt;0,IF(K106="","",K106),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M106" s="12" t="s">
@@ -13811,7 +13817,7 @@
         <v>3</v>
       </c>
       <c r="O106" s="19" t="str">
-        <f>IF($G106&gt;0,N106,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P106" s="44" t="s">
@@ -13821,7 +13827,7 @@
         <v>3</v>
       </c>
       <c r="R106" s="9" t="str">
-        <f>IF($G106&gt;0,IF(Q106="","",Q106),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S106" s="14" t="s">
@@ -13863,7 +13869,7 @@
         <v>4</v>
       </c>
       <c r="L107" s="9" t="str">
-        <f>IF($G107&gt;0,IF(K107="","",K107),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M107" s="43" t="s">
@@ -13873,13 +13879,13 @@
         <v>3</v>
       </c>
       <c r="O107" s="19" t="str">
-        <f>IF($G107&gt;0,N107,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P107" s="12"/>
       <c r="Q107" s="13"/>
       <c r="R107" s="9" t="str">
-        <f>IF($G107&gt;0,IF(Q107="","",Q107),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S107" s="14" t="s">
@@ -13925,7 +13931,7 @@
         <v>5</v>
       </c>
       <c r="L108" s="9">
-        <f>IF($G108&gt;0,IF(K108="","",K108),"")</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="M108" s="12" t="s">
@@ -13935,7 +13941,7 @@
         <v>5</v>
       </c>
       <c r="O108" s="19">
-        <f>IF($G108&gt;0,N108,"")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="P108" s="12" t="s">
@@ -13945,7 +13951,7 @@
         <v>5</v>
       </c>
       <c r="R108" s="9">
-        <f>IF($G108&gt;0,IF(Q108="","",Q108),"")</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="S108" s="14" t="s">
@@ -13991,7 +13997,7 @@
         <v>5</v>
       </c>
       <c r="L109" s="9" t="str">
-        <f>IF($G109&gt;0,IF(K109="","",K109),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M109" s="12" t="s">
@@ -14001,7 +14007,7 @@
         <v>5</v>
       </c>
       <c r="O109" s="19" t="str">
-        <f>IF($G109&gt;0,N109,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P109" s="44" t="s">
@@ -14011,7 +14017,7 @@
         <v>3</v>
       </c>
       <c r="R109" s="9" t="str">
-        <f>IF($G109&gt;0,IF(Q109="","",Q109),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S109" s="14" t="s">
@@ -14053,19 +14059,19 @@
         <v>3</v>
       </c>
       <c r="L110" s="9" t="str">
-        <f>IF($G110&gt;0,IF(K110="","",K110),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M110" s="71"/>
       <c r="N110" s="13"/>
       <c r="O110" s="19" t="str">
-        <f>IF($G110&gt;0,N110,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P110" s="12"/>
       <c r="Q110" s="13"/>
       <c r="R110" s="9" t="str">
-        <f>IF($G110&gt;0,IF(Q110="","",Q110),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S110" s="14" t="s">
@@ -14109,7 +14115,7 @@
         <v>4</v>
       </c>
       <c r="L111" s="9" t="str">
-        <f>IF($G111&gt;0,IF(K111="","",K111),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M111" s="12" t="s">
@@ -14119,13 +14125,13 @@
         <v>2</v>
       </c>
       <c r="O111" s="19" t="str">
-        <f>IF($G111&gt;0,N111,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P111" s="12"/>
       <c r="Q111" s="13"/>
       <c r="R111" s="9" t="str">
-        <f>IF($G111&gt;0,IF(Q111="","",Q111),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S111" s="14" t="s">
@@ -14165,7 +14171,7 @@
         <v>3</v>
       </c>
       <c r="L112" s="9" t="str">
-        <f>IF($G112&gt;0,IF(K112="","",K112),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M112" s="12" t="s">
@@ -14175,7 +14181,7 @@
         <v>3</v>
       </c>
       <c r="O112" s="19" t="str">
-        <f>IF($G112&gt;0,N112,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P112" s="44" t="s">
@@ -14185,7 +14191,7 @@
         <v>3</v>
       </c>
       <c r="R112" s="9" t="str">
-        <f>IF($G112&gt;0,IF(Q112="","",Q112),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S112" s="14" t="s">
@@ -14227,7 +14233,7 @@
         <v>4</v>
       </c>
       <c r="L113" s="9" t="str">
-        <f>IF($G113&gt;0,IF(K113="","",K113),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M113" s="12" t="s">
@@ -14237,13 +14243,13 @@
         <v>2</v>
       </c>
       <c r="O113" s="19" t="str">
-        <f>IF($G113&gt;0,N113,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P113" s="12"/>
       <c r="Q113" s="13"/>
       <c r="R113" s="9" t="str">
-        <f>IF($G113&gt;0,IF(Q113="","",Q113),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S113" s="14"/>
@@ -14275,7 +14281,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="13"/>
       <c r="L114" s="9" t="str">
-        <f>IF($G114&gt;0,IF(K114="","",K114),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M114" s="12"/>
@@ -14287,7 +14293,7 @@
       <c r="P114" s="124"/>
       <c r="Q114" s="13"/>
       <c r="R114" s="9" t="str">
-        <f>IF($G114&gt;0,IF(Q114="","",Q114),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S114" s="12" t="s">
@@ -14333,7 +14339,7 @@
         <v>2</v>
       </c>
       <c r="L115" s="9" t="str">
-        <f>IF($G115&gt;0,IF(K115="","",K115),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M115" s="12" t="s">
@@ -14349,7 +14355,7 @@
       <c r="P115" s="12"/>
       <c r="Q115" s="13"/>
       <c r="R115" s="9" t="str">
-        <f>IF($G115&gt;0,IF(Q115="","",Q115),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S115" s="14" t="s">
@@ -14391,7 +14397,7 @@
         <v>2</v>
       </c>
       <c r="L116" s="9" t="str">
-        <f>IF($G116&gt;0,IF(K116="","",K116),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M116" s="12" t="s">
@@ -14411,7 +14417,7 @@
         <v>2</v>
       </c>
       <c r="R116" s="9" t="str">
-        <f>IF($G116&gt;0,IF(Q116="","",Q116),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S116" s="20" t="s">
@@ -14453,7 +14459,7 @@
         <v>2</v>
       </c>
       <c r="L117" s="9" t="str">
-        <f>IF($G117&gt;0,IF(K117="","",K117),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M117" s="12" t="s">
@@ -14473,7 +14479,7 @@
         <v>4</v>
       </c>
       <c r="R117" s="9" t="str">
-        <f>IF($G117&gt;0,IF(Q117="","",Q117),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S117" s="14" t="s">
@@ -14519,7 +14525,7 @@
         <v>4</v>
       </c>
       <c r="L118" s="9" t="str">
-        <f>IF($G118&gt;0,IF(K118="","",K118),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M118" s="12"/>
@@ -14531,7 +14537,7 @@
       <c r="P118" s="124"/>
       <c r="Q118" s="13"/>
       <c r="R118" s="9" t="str">
-        <f>IF($G118&gt;0,IF(Q118="","",Q118),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S118" s="12" t="s">
@@ -14604,7 +14610,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E5 E72 E116:E118 E44:E59 E89:E91 E110:E112 E97:E98 E70 E39:E42 E7:E24 E61:E63 E65:E68 E26:E30 E103:E108 E32:E37">
-    <cfRule type="expression" dxfId="110" priority="80">
+    <cfRule type="expression" dxfId="109" priority="80">
       <formula>E5=8</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14854,6 +14860,165 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D8784E-EEC0-4EB3-8227-8371F1631928}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="30.58203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="130" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130">
+        <v>2</v>
+      </c>
+      <c r="E1" s="130">
+        <v>-1</v>
+      </c>
+      <c r="F1" s="130">
+        <v>3</v>
+      </c>
+      <c r="G1" s="130">
+        <v>20</v>
+      </c>
+      <c r="H1" s="130"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="130" t="s">
+        <v>359</v>
+      </c>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130">
+        <v>4</v>
+      </c>
+      <c r="E2" s="130">
+        <v>6</v>
+      </c>
+      <c r="F2" s="130">
+        <v>1</v>
+      </c>
+      <c r="G2" s="130">
+        <v>42</v>
+      </c>
+      <c r="H2" s="130"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="130" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130">
+        <v>9</v>
+      </c>
+      <c r="E3" s="130">
+        <v>5</v>
+      </c>
+      <c r="F3" s="130">
+        <v>-8</v>
+      </c>
+      <c r="G3" s="130">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="130"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="130"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="130"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="130"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130">
+        <f t="array" ref="D6:F8">MINVERSE(D1:F3)</f>
+        <v>0.21285140562248997</v>
+      </c>
+      <c r="E6" s="130">
+        <v>-2.811244979919679E-2</v>
+      </c>
+      <c r="F6" s="130">
+        <v>7.6305220883534142E-2</v>
+      </c>
+      <c r="G6" s="130"/>
+      <c r="H6" s="130">
+        <f t="array" ref="H6:H8">MMULT(D6:F8,G1:G3)</f>
+        <v>3.0000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="130"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130">
+        <v>-0.1646586345381526</v>
+      </c>
+      <c r="E7" s="130">
+        <v>0.17269076305220885</v>
+      </c>
+      <c r="F7" s="130">
+        <v>-4.0160642570281117E-2</v>
+      </c>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="130"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130">
+        <v>0.13654618473895583</v>
+      </c>
+      <c r="E8" s="130">
+        <v>7.6305220883534142E-2</v>
+      </c>
+      <c r="F8" s="130">
+        <v>-6.4257028112449807E-2</v>
+      </c>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130">
+        <v>6.0000000000000009</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507E7625-3E40-4547-8FED-8B86F9525DD9}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:H4"/>
@@ -14933,7 +15098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560D79C1-DDD3-4A22-B0D6-B491AFCAAFA2}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:R50"/>
@@ -15576,27 +15741,27 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C37">
-        <f>C36-C49</f>
+        <f t="shared" ref="C37:H37" si="2">C36-C49</f>
         <v>0</v>
       </c>
       <c r="D37">
-        <f>D36-D49</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E37">
-        <f>E36-E49</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F37">
-        <f>F36-F49</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G37">
-        <f>G36-G49</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H37">
-        <f>H36-H49</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -15650,7 +15815,7 @@
         <v>1</v>
       </c>
       <c r="I40">
-        <f t="shared" ref="I40:I46" si="2">$C$1*C40+$D$1*D40+$E$1*E40+$F$1*F40+$G$1*G40+$H$1*H40</f>
+        <f t="shared" ref="I40:I46" si="3">$C$1*C40+$D$1*D40+$E$1*E40+$F$1*F40+$G$1*G40+$H$1*H40</f>
         <v>1.4</v>
       </c>
     </row>
@@ -15671,7 +15836,7 @@
         <v>1</v>
       </c>
       <c r="I41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4</v>
       </c>
     </row>
@@ -15689,7 +15854,7 @@
         <v>1</v>
       </c>
       <c r="I42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.95</v>
       </c>
     </row>
@@ -15707,7 +15872,7 @@
         <v>1</v>
       </c>
       <c r="I43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.95</v>
       </c>
     </row>
@@ -15725,7 +15890,7 @@
         <v>3</v>
       </c>
       <c r="I44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -15746,7 +15911,7 @@
         <v>1</v>
       </c>
       <c r="I45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4000000000000001</v>
       </c>
     </row>
@@ -15764,7 +15929,7 @@
         <v>2</v>
       </c>
       <c r="I46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -15804,27 +15969,27 @@
     <row r="49" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="15"/>
       <c r="C49">
-        <f>SUM(C38:C48)</f>
+        <f t="shared" ref="C49:H49" si="4">SUM(C38:C48)</f>
         <v>9</v>
       </c>
       <c r="D49">
-        <f>SUM(D38:D48)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="E49">
-        <f>SUM(E38:E48)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="F49">
-        <f>SUM(F38:F48)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="G49">
-        <f>SUM(G38:G48)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="H49">
-        <f>SUM(H38:H48)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15837,7 +16002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DA7522-5CDA-4763-94A1-1A47E25BD96E}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AM64"/>
@@ -24593,7 +24758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C92B2D-D249-4CE8-A21B-A929F0D5F694}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:X114"/>
@@ -30681,7 +30846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6690A7CA-FA74-E44C-A71D-6036E58A2545}">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:X112"/>
